--- a/stormbringer/checklist.xlsx
+++ b/stormbringer/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/stormbringer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30D6782A-5B5C-CC45-B85F-5DD091D1B318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C326524-F796-D847-9D79-3D2D8031CACA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{9C9CED03-AB6B-524F-8F74-F06665B9CAB4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{9C9CED03-AB6B-524F-8F74-F06665B9CAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>year</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>ヴェルヴェット・サークル</t>
+  </si>
+  <si>
+    <t>elric.jpg</t>
+  </si>
+  <si>
+    <t>rulebook</t>
+  </si>
+  <si>
+    <t>Elric! Dark Fantasy Roleplaying</t>
+  </si>
+  <si>
+    <t>エルリック！</t>
   </si>
 </sst>
 </file>
@@ -465,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFF2F4C-1932-0542-8AB1-7EC70E6C0868}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,6 +597,26 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1995</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stormbringer/checklist.xlsx
+++ b/stormbringer/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/stormbringer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C326524-F796-D847-9D79-3D2D8031CACA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A856386-B3D8-D74A-A91F-2D8075D32AB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{9C9CED03-AB6B-524F-8F74-F06665B9CAB4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>year</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>エルリック！</t>
+  </si>
+  <si>
+    <t>stormbringer_2006.jpeg</t>
+  </si>
+  <si>
+    <t>Michael Moorcock's Stormbringer</t>
+  </si>
+  <si>
+    <t>Enterbrain</t>
   </si>
 </sst>
 </file>
@@ -477,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFF2F4C-1932-0542-8AB1-7EC70E6C0868}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,6 +626,26 @@
         <v>25</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stormbringer/checklist.xlsx
+++ b/stormbringer/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/stormbringer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A856386-B3D8-D74A-A91F-2D8075D32AB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A5C0DE-5810-CE49-9EE3-3F693AE9C03D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{9C9CED03-AB6B-524F-8F74-F06665B9CAB4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>year</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Enterbrain</t>
+  </si>
+  <si>
+    <t>supplement</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -580,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>

--- a/stormbringer/checklist.xlsx
+++ b/stormbringer/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/stormbringer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A5C0DE-5810-CE49-9EE3-3F693AE9C03D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038500D9-AADC-784D-96CB-A56FFF41EFB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{9C9CED03-AB6B-524F-8F74-F06665B9CAB4}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,7 +603,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>

--- a/stormbringer/checklist.xlsx
+++ b/stormbringer/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/stormbringer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/japanese-collectors-list/stormbringer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038500D9-AADC-784D-96CB-A56FFF41EFB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41F9571-6EE3-5740-BD6B-961FC0DA9EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{9C9CED03-AB6B-524F-8F74-F06665B9CAB4}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="16340" xr2:uid="{9C9CED03-AB6B-524F-8F74-F06665B9CAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,69 +527,78 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1988</v>
+      </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>149</v>
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1992</v>
+      </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1992</v>
+      </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -650,6 +659,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+    <sortCondition ref="A2:A7"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>